--- a/public/data/yield_loss/yield_table_south_africa.xlsx
+++ b/public/data/yield_loss/yield_table_south_africa.xlsx
@@ -1608,7 +1608,7 @@
         <v>0.61</v>
       </c>
       <c r="U5" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.9</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="6">
@@ -2203,7 +2203,7 @@
         <v>3.12</v>
       </c>
       <c r="F13" t="n">
-        <v>299.2</v>
+        <v>298.76</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>69.61</v>
       </c>
       <c r="U13" t="n">
-        <v>142.52</v>
+        <v>141.37</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>0.08</v>
       </c>
       <c r="F16" t="n">
-        <v>214.16</v>
+        <v>213.14</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>24.95</v>
       </c>
       <c r="K16" t="n">
-        <v>41.35</v>
+        <v>42.13</v>
       </c>
       <c r="L16" t="n">
-        <v>65.19</v>
+        <v>64.84</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>203.17</v>
       </c>
       <c r="U16" t="n">
-        <v>9077.53</v>
+        <v>9394.85</v>
       </c>
       <c r="V16" t="n">
         <v>349.79</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>33.38</v>
+        <v>33.37</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>8.5</v>
       </c>
       <c r="U17" t="n">
-        <v>35.2</v>
+        <v>35.19</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0.48</v>
       </c>
       <c r="F20" t="n">
-        <v>76.36</v>
+        <v>76.34</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0.03</v>
       </c>
       <c r="K20" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="L20" t="n">
         <v>2.51</v>
@@ -2808,7 +2808,7 @@
         <v>17.54</v>
       </c>
       <c r="U20" t="n">
-        <v>147.33</v>
+        <v>148.49</v>
       </c>
       <c r="V20" t="n">
         <v>10.44</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>11.66</v>
+        <v>11.74</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3258,10 +3258,10 @@
         <v>0.25</v>
       </c>
       <c r="K26" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="L26" t="n">
-        <v>6.51</v>
+        <v>6.55</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>0.98</v>
       </c>
       <c r="U26" t="n">
-        <v>46.23</v>
+        <v>48.22</v>
       </c>
       <c r="V26" t="n">
         <v>277.01</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>59.04</v>
+        <v>59.76</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3498,25 +3498,25 @@
         <v>0.9</v>
       </c>
       <c r="K29" t="n">
-        <v>8.24</v>
+        <v>8.98</v>
       </c>
       <c r="L29" t="n">
-        <v>16.69</v>
+        <v>16.97</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1031.19</v>
+        <v>1029.97</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>24.74</v>
+        <v>24.67</v>
       </c>
       <c r="Q29" t="n">
-        <v>871.37</v>
+        <v>870.35</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -3528,7 +3528,7 @@
         <v>2.91</v>
       </c>
       <c r="U29" t="n">
-        <v>219.47</v>
+        <v>233.11</v>
       </c>
       <c r="V29" t="n">
         <v>5136.98</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>40.34</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="30">
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.24</v>
+        <v>9.2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0.05</v>
       </c>
       <c r="K31" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="L31" t="n">
         <v>6.33</v>
@@ -3688,7 +3688,7 @@
         <v>4.26</v>
       </c>
       <c r="U31" t="n">
-        <v>17.92</v>
+        <v>17.9</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>101.64</v>
+        <v>101</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3738,16 +3738,16 @@
         <v>2.88</v>
       </c>
       <c r="K32" t="n">
-        <v>8.94</v>
+        <v>8.98</v>
       </c>
       <c r="L32" t="n">
-        <v>105.47</v>
+        <v>104.77</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1193.63</v>
+        <v>1193.61</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>54.93</v>
       </c>
       <c r="U32" t="n">
-        <v>403.53</v>
+        <v>406.59</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>62.4</v>
+        <v>62.27</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         <v>0.47</v>
       </c>
       <c r="K33" t="n">
-        <v>9.69</v>
+        <v>9.68</v>
       </c>
       <c r="L33" t="n">
         <v>12.46</v>
@@ -3848,7 +3848,7 @@
         <v>50.27</v>
       </c>
       <c r="U33" t="n">
-        <v>372.26</v>
+        <v>371.95</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>57.32</v>
+        <v>59.48</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>2.04</v>
       </c>
       <c r="K34" t="n">
-        <v>6.79</v>
+        <v>7.75</v>
       </c>
       <c r="L34" t="n">
-        <v>27.8</v>
+        <v>28.62</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>412.49</v>
+        <v>417.06</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>15.7</v>
+        <v>15.64</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.19</v>
+        <v>4.26</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3925,16 +3925,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>41.29</v>
+        <v>41.55</v>
       </c>
       <c r="U34" t="n">
-        <v>140.63</v>
+        <v>159.69</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>33.7</v>
+        <v>33.53</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>3.11</v>
       </c>
       <c r="Z34" t="n">
-        <v>157.42</v>
+        <v>160.47</v>
       </c>
     </row>
     <row r="35">
@@ -3963,7 +3963,7 @@
         <v>0.02</v>
       </c>
       <c r="F35" t="n">
-        <v>31.33</v>
+        <v>31.31</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3975,19 +3975,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.52</v>
+        <v>11.44</v>
       </c>
       <c r="K35" t="n">
-        <v>19.22</v>
+        <v>20.17</v>
       </c>
       <c r="L35" t="n">
-        <v>246.98</v>
+        <v>251.96</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>801.09</v>
+        <v>850.3</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>1.04</v>
       </c>
       <c r="Q35" t="n">
-        <v>47.15</v>
+        <v>48.64</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -4005,25 +4005,25 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>75.58</v>
+        <v>78.01</v>
       </c>
       <c r="U35" t="n">
-        <v>942.31</v>
+        <v>1003.45</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>319.79</v>
+        <v>316.62</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.32</v>
+        <v>15.21</v>
       </c>
       <c r="Z35" t="n">
-        <v>1758.32</v>
+        <v>1821.1</v>
       </c>
     </row>
     <row r="36">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>355.13</v>
+        <v>352.56</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -4058,16 +4058,16 @@
         <v>25.92</v>
       </c>
       <c r="K36" t="n">
-        <v>10.95</v>
+        <v>10.92</v>
       </c>
       <c r="L36" t="n">
-        <v>172.68</v>
+        <v>171.58</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>6159.67</v>
+        <v>6159.65</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>3.82</v>
       </c>
       <c r="Q36" t="n">
-        <v>360.65</v>
+        <v>360.64</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>239.71</v>
       </c>
       <c r="U36" t="n">
-        <v>2009.47</v>
+        <v>2006.42</v>
       </c>
       <c r="V36" t="n">
         <v>1969.59</v>
@@ -4123,7 +4123,7 @@
         <v>0.21</v>
       </c>
       <c r="F37" t="n">
-        <v>1117.11</v>
+        <v>1105.48</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0.38</v>
       </c>
       <c r="K37" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="L37" t="n">
         <v>6.58</v>
@@ -4168,7 +4168,7 @@
         <v>705.83</v>
       </c>
       <c r="U37" t="n">
-        <v>1365.83</v>
+        <v>1370.49</v>
       </c>
       <c r="V37" t="n">
         <v>18.96</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>542.69</v>
+        <v>541.35</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -4218,16 +4218,16 @@
         <v>36.21</v>
       </c>
       <c r="K38" t="n">
-        <v>39.68</v>
+        <v>41.29</v>
       </c>
       <c r="L38" t="n">
-        <v>63.47</v>
+        <v>64.14</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>18631.01</v>
+        <v>18628.69</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>13399.3</v>
+        <v>13398.52</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -4245,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>497.17</v>
+        <v>496.89</v>
       </c>
       <c r="U38" t="n">
-        <v>12750.92</v>
+        <v>13354.17</v>
       </c>
       <c r="V38" t="n">
         <v>513.48</v>
@@ -4263,7 +4263,7 @@
         <v>7.57</v>
       </c>
       <c r="Z38" t="n">
-        <v>589.34</v>
+        <v>589.17</v>
       </c>
     </row>
     <row r="39">
@@ -5243,7 +5243,7 @@
         <v>32.2</v>
       </c>
       <c r="F51" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>40.86</v>
+        <v>40.85</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -5288,7 +5288,7 @@
         <v>3.21</v>
       </c>
       <c r="U51" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
